--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -2920,26 +2920,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,26 +3016,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14478,16 +14478,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14496,12 +14496,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14526,16 +14526,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14544,12 +14544,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -13248,7 +13248,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -4052,7 +4052,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -2920,26 +2920,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,26 +3016,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14478,16 +14478,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14496,12 +14496,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14526,16 +14526,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14544,12 +14544,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -2968,26 +2968,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,26 +3064,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14526,16 +14526,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14544,12 +14544,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14574,16 +14574,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -2968,26 +2968,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,26 +3064,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,16 +7682,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14526,16 +14526,16 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14544,12 +14544,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14574,16 +14574,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/03/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3016,26 +3016,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,26 +3112,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14574,16 +14574,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3016,26 +3016,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,26 +3112,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14574,16 +14574,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3044,7 +3044,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3016,26 +3016,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,26 +3112,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14574,16 +14574,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3016,26 +3016,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,26 +3112,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,16 +3602,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14574,16 +14574,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14592,12 +14592,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3064,26 +3064,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14670,16 +14670,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14688,12 +14688,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3064,26 +3064,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14670,16 +14670,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14688,12 +14688,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/05/2022</t>
+          <t>25/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -14483,7 +14483,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>CHILE EXPLORATION AND MINING S.A.</t>
+          <t>COMPAÑÍA MINERA LLANOS DE EL TOFO</t>
         </is>
       </c>
       <c r="F295" t="n">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cuprum Resources Chile S.p.A.</t>
+          <t>Cuprum Resources Chile SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CUPRUM RESOURCES CHILE LIMITADA</t>
+          <t>Cuprum Resources Chile SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3064,26 +3064,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,16 +3650,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Cuprum Resources Chile SpA</t>
+          <t>Cuprum Resources Chile SPA</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -14612,7 +14612,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14622,16 +14622,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14640,12 +14640,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14670,16 +14670,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14688,12 +14688,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>28/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3112,26 +3112,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14670,16 +14670,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14688,12 +14688,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14718,16 +14718,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14736,12 +14736,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3112,26 +3112,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14670,16 +14670,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14688,12 +14688,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14718,16 +14718,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14736,12 +14736,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14718,16 +14718,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14736,12 +14736,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14766,16 +14766,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14784,12 +14784,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14718,16 +14718,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14736,12 +14736,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14766,16 +14766,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14784,12 +14784,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/08/2022</t>
+          <t>16/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -10363,7 +10363,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F209" t="n">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicios INTOSIM Ltda</t>
+          <t>Servicios INTOSIM SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Servicios INTOSIM Ltda</t>
+          <t>Servicios INTOSIM SpA</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14766,16 +14766,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14784,12 +14784,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14814,16 +14814,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14832,12 +14832,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14814,16 +14814,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14832,12 +14832,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14852,7 +14852,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14862,16 +14862,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14880,12 +14880,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14814,16 +14814,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14832,12 +14832,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14852,7 +14852,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14862,16 +14862,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14880,12 +14880,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/09/2022</t>
+          <t>14/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14814,16 +14814,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14832,12 +14832,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14852,7 +14852,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14862,16 +14862,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14880,12 +14880,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14910,16 +14910,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14928,12 +14928,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14958,16 +14958,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14910,16 +14910,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14928,12 +14928,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14958,16 +14958,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>161261</v>
+        <v>32000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32000</v>
+        <v>161261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/12/2022</t>
+          <t>28/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>32000</v>
+        <v>161261</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>161261</v>
+        <v>32000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14910,16 +14910,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14928,12 +14928,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14958,16 +14958,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3400,26 +3400,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14958,16 +14958,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3400,26 +3400,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14958,16 +14958,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3400,26 +3400,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14958,16 +14958,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14976,12 +14976,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ROBERTO ANDRES MONTENEGRO RAMIREZ</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Geomilenium SpA</t>
+          <t>SERENA IRON SPA</t>
         </is>
       </c>
       <c r="F82" t="n">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,26 +3544,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15006,16 +15006,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15024,12 +15024,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.5</v>
+        <v>12500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,26 +3592,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10000</v>
+        <v>2.5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15102,16 +15102,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15120,12 +15120,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,26 +3592,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15102,16 +15102,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15120,12 +15120,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Higuera.xlsx
+++ b/data/La Higuera.xlsx
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Total Sunpower El Pelícano Spa.</t>
+          <t>El Pelicano Solar Company SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Dominga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Andes Iron SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12500</v>
+        <v>2.5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,26 +3592,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dominga</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Andes Iron SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128565332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Proyecto "Extracción de Áridos Quebrada Honda"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>140</v>
+        <v>1500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Chispita Dorada (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cruz Grande S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>350</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Chispita Dorada (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Cruz Grande S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>350</v>
+        <v>10000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4305283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Casa y Local Comercial</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15054,16 +15054,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Campos Gárnica</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15072,12 +15072,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Casa y Local Comercial</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15102,16 +15102,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Campos Gárnica</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15120,12 +15120,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
